--- a/Indicadores/indicadores.xlsx
+++ b/Indicadores/indicadores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\IndicadoresFinanciera\Indicadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5E3AA0-6B80-4C84-A502-1EF826AE9B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2647C017-B256-45F9-B34E-163493FEEA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{3E32A9A8-D421-4ECD-A343-BFEC88EFB94F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="9" activeTab="11" xr2:uid="{3E32A9A8-D421-4ECD-A343-BFEC88EFB94F}"/>
   </bookViews>
   <sheets>
     <sheet name="data clima" sheetId="24" state="hidden" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="147">
   <si>
     <t>MES</t>
   </si>
@@ -471,6 +471,27 @@
   <si>
     <t xml:space="preserve">JUN </t>
   </si>
+  <si>
+    <t>DEPARTAMENTO ASUNTOS CORPORATIVOS Y REGULATORIOS</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO LEGAL Y CORPORATIVA</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO RELACIONES LABORALES</t>
+  </si>
+  <si>
+    <t>GERENCIA ASESORIA LEGAL Y CUMPLIMIENTO</t>
+  </si>
+  <si>
+    <t>OFICIALIA CONDUCTA DE MERCADO</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO GESTION EFECTIVA CEAS</t>
+  </si>
+  <si>
+    <t>GERENCIA GESTION EFECTIVA Y FRAUDES</t>
+  </si>
 </sst>
 </file>
 
@@ -479,7 +500,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,14 +591,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="70"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,8 +627,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -848,12 +891,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="dotted">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="2" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color theme="2" tint="-0.249977111117893"/>
+      </right>
+      <top style="dotted">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -865,9 +1025,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -977,22 +1134,71 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1002,8 +1208,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF666699"/>
       <color rgb="FF036C7D"/>
-      <color rgb="FF666699"/>
       <color rgb="FFC61062"/>
     </mruColors>
   </colors>
@@ -2458,7 +2664,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="666699"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2483,10 +2689,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5014,7 +5217,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="666699"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5039,10 +5242,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6145,7 +6345,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="666699"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6170,10 +6370,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7710,7 +7907,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="666699"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -7735,10 +7932,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -9275,7 +9469,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="666699"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -9300,10 +9494,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -9688,16 +9879,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.81818181818181823</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.875</c:v>
+                  <c:v>0.86956521739130432</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.95454545454545459</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -11144,7 +11335,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="666699"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -11169,10 +11360,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -12709,7 +12897,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="666699"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -12734,10 +12922,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -13803,10 +13988,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.125</c:v>
+                  <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.125</c:v>
+                  <c:v>4.3478260869565216E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -14902,7 +15087,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="666699"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -14927,10 +15112,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -15284,9 +15466,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'GESTION EFECTIVA Y FRAUDES'!$C$25:$C$28</c:f>
+              <c:f>'GESTION EFECTIVA Y FRAUDES'!$C$25:$C$30</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>ENE</c:v>
                 </c:pt>
@@ -15298,27 +15480,39 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>ABR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MAY</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JUN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'GESTION EFECTIVA Y FRAUDES'!$D$25:$D$28</c:f>
+              <c:f>'GESTION EFECTIVA Y FRAUDES'!$D$25:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.93333333333333335</c:v>
+                  <c:v>0.94117647058823528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90322580645161288</c:v>
+                  <c:v>0.91428571428571426</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87096774193548387</c:v>
+                  <c:v>0.86111111111111116</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90322580645161288</c:v>
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16298,7 +16492,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="666699"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -16323,10 +16517,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -17863,7 +18054,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="666699"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -17888,10 +18079,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="bg1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -47100,8 +47288,8 @@
   <sheetPr codeName="Hoja11"/>
   <dimension ref="B2:M51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="75" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -47194,91 +47382,141 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G9" s="5"/>
-      <c r="M9" s="6"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="65"/>
     </row>
     <row r="10" spans="2:13" ht="92" x14ac:dyDescent="2">
-      <c r="G10" s="5"/>
-      <c r="M10" s="7">
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="64">
         <f>C5</f>
         <v>0.95951247165532882</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G11" s="5"/>
-      <c r="M11" s="6"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="65"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G12" s="5"/>
-      <c r="M12" s="6"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="65"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G13" s="5"/>
-      <c r="M13" s="6"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="65"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G14" s="5"/>
-      <c r="M14" s="6"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="65"/>
     </row>
     <row r="15" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="G15" s="5"/>
-      <c r="M15" s="16">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="79">
         <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="G16" s="5"/>
-      <c r="M16" s="15" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="67" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G17" s="5"/>
-      <c r="M17" s="6"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="65"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G18" s="5"/>
-      <c r="M18" s="6"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="65"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70"/>
     </row>
     <row r="22" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="73"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="13"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="65"/>
     </row>
     <row r="24" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
@@ -47290,8 +47528,13 @@
       <c r="F24" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="M24" s="56">
+      <c r="G24" s="62"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="78">
         <f>D30</f>
         <v>1</v>
       </c>
@@ -47300,7 +47543,7 @@
       <c r="C25" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="17">
         <f>E25/F25</f>
         <v>0.82692307692307687</v>
       </c>
@@ -47310,14 +47553,19 @@
       <c r="F25">
         <v>156</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="M25" s="57"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="81"/>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="17">
         <f t="shared" ref="D26:D30" si="0">E26/F26</f>
         <v>0.83750000000000002</v>
       </c>
@@ -47327,14 +47575,19 @@
       <c r="F26">
         <v>160</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="M26" s="57"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="81"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="17">
         <f t="shared" si="0"/>
         <v>0.79545454545454541</v>
       </c>
@@ -47344,14 +47597,19 @@
       <c r="F27">
         <v>176</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="M27" s="6"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="65"/>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="17">
         <f t="shared" si="0"/>
         <v>0.79473684210526319</v>
       </c>
@@ -47361,14 +47619,19 @@
       <c r="F28">
         <v>190</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="M28" s="6"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="65"/>
     </row>
     <row r="29" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -47378,8 +47641,13 @@
       <c r="F29">
         <v>154</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="M29" s="16">
+      <c r="G29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="79">
         <f>D30</f>
         <v>1</v>
       </c>
@@ -47388,7 +47656,7 @@
       <c r="C30" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -47398,55 +47666,80 @@
       <c r="F30">
         <v>155</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="M30" s="15" t="s">
+      <c r="G30" s="62"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="67" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G31" s="5"/>
-      <c r="M31" s="6"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="65"/>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G32" s="5"/>
-      <c r="M32" s="6"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="65"/>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G33" s="5"/>
-      <c r="M33" s="6"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="65"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G34" s="5"/>
-      <c r="M34" s="6"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="65"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="70"/>
     </row>
     <row r="38" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="54"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="53"/>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="13"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="12"/>
     </row>
     <row r="40" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
@@ -47459,7 +47752,7 @@
         <v>135</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="M40" s="47">
+      <c r="M40" s="46">
         <f>D46</f>
         <v>0</v>
       </c>
@@ -47479,7 +47772,7 @@
         <v>156</v>
       </c>
       <c r="G41" s="5"/>
-      <c r="M41" s="48"/>
+      <c r="M41" s="47"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
@@ -47496,7 +47789,7 @@
         <v>160</v>
       </c>
       <c r="G42" s="5"/>
-      <c r="M42" s="48"/>
+      <c r="M42" s="47"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
@@ -47544,7 +47837,7 @@
         <v>154</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="M45" s="14">
+      <c r="M45" s="13">
         <f>D45</f>
         <v>0</v>
       </c>
@@ -47561,7 +47854,7 @@
         <v>155</v>
       </c>
       <c r="G46" s="5"/>
-      <c r="M46" s="15" t="s">
+      <c r="M46" s="14" t="s">
         <v>111</v>
       </c>
     </row>
@@ -47582,13 +47875,13 @@
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="10"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -47609,8 +47902,8 @@
   <sheetPr codeName="Hoja8"/>
   <dimension ref="B2:M51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A53" zoomScale="77" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView showGridLines="0" topLeftCell="A33" zoomScale="77" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -47703,91 +47996,141 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G9" s="5"/>
-      <c r="M9" s="6"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="65"/>
     </row>
     <row r="10" spans="2:13" ht="92" x14ac:dyDescent="2">
-      <c r="G10" s="5"/>
-      <c r="M10" s="7">
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="64">
         <f>C5</f>
         <v>0.97777777777777786</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G11" s="5"/>
-      <c r="M11" s="6"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="65"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G12" s="5"/>
-      <c r="M12" s="6"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="65"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G13" s="5"/>
-      <c r="M13" s="6"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="65"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G14" s="5"/>
-      <c r="M14" s="6"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="65"/>
     </row>
     <row r="15" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="G15" s="5"/>
-      <c r="M15" s="14">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="66">
         <v>0.99</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="G16" s="5"/>
-      <c r="M16" s="15" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="67" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G17" s="5"/>
-      <c r="M17" s="6"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="65"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G18" s="5"/>
-      <c r="M18" s="6"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="65"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70"/>
     </row>
     <row r="22" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="73"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="13"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="65"/>
     </row>
     <row r="24" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
@@ -47799,8 +48142,13 @@
       <c r="F24" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="M24" s="48">
+      <c r="G24" s="62"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="83">
         <f>D28*100</f>
         <v>100</v>
       </c>
@@ -47818,8 +48166,13 @@
       <c r="F25">
         <v>6</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="M25" s="48"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="83"/>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
@@ -47834,8 +48187,13 @@
       <c r="F26">
         <v>5</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="M26" s="48"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="83"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
@@ -47850,8 +48208,13 @@
       <c r="F27">
         <v>5</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="M27" s="6"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="65"/>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
@@ -47866,8 +48229,13 @@
       <c r="F28">
         <v>5</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="M28" s="6"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="65"/>
     </row>
     <row r="29" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
@@ -47882,8 +48250,13 @@
       <c r="F29">
         <v>5</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="M29" s="14">
+      <c r="G29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="66">
         <f>D27</f>
         <v>1</v>
       </c>
@@ -47901,55 +48274,80 @@
       <c r="F30">
         <v>5</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="M30" s="15" t="s">
+      <c r="G30" s="62"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="67" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G31" s="5"/>
-      <c r="M31" s="6"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="65"/>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G32" s="5"/>
-      <c r="M32" s="6"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="65"/>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G33" s="5"/>
-      <c r="M33" s="6"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="65"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G34" s="5"/>
-      <c r="M34" s="6"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="65"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="70"/>
     </row>
     <row r="38" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="54"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="53"/>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="13"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="12"/>
     </row>
     <row r="40" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
@@ -47962,7 +48360,7 @@
         <v>135</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="M40" s="47">
+      <c r="M40" s="46">
         <f>D46</f>
         <v>0</v>
       </c>
@@ -47982,7 +48380,7 @@
         <v>6</v>
       </c>
       <c r="G41" s="5"/>
-      <c r="M41" s="48"/>
+      <c r="M41" s="47"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
@@ -47999,7 +48397,7 @@
         <v>5</v>
       </c>
       <c r="G42" s="5"/>
-      <c r="M42" s="48"/>
+      <c r="M42" s="47"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
@@ -48047,7 +48445,7 @@
         <v>5</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="M45" s="16">
+      <c r="M45" s="15">
         <f>E45</f>
         <v>0</v>
       </c>
@@ -48064,7 +48462,7 @@
         <v>5</v>
       </c>
       <c r="G46" s="5"/>
-      <c r="M46" s="15" t="s">
+      <c r="M46" s="14" t="s">
         <v>111</v>
       </c>
     </row>
@@ -48085,13 +48483,13 @@
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="10"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -48110,10 +48508,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E76C38-E049-4880-B3F0-231DE52269DB}">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="B2:M51"/>
+  <dimension ref="B2:AF67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="56" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="56" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -48123,6 +48521,8 @@
     <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="32.1796875" customWidth="1"/>
+    <col min="14" max="14" width="36.36328125" customWidth="1"/>
+    <col min="30" max="30" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.35">
@@ -48195,15 +48595,15 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="50"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="G9" s="5"/>
@@ -48211,34 +48611,34 @@
     </row>
     <row r="10" spans="2:13" ht="91.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G10" s="5"/>
-      <c r="M10" s="47">
+      <c r="M10" s="46">
         <f>C5</f>
         <v>0.98713738368910775</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="G11" s="5"/>
-      <c r="M11" s="47"/>
+      <c r="M11" s="46"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="G12" s="5"/>
-      <c r="M12" s="47"/>
+      <c r="M12" s="46"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="G13" s="5"/>
-      <c r="M13" s="47"/>
+      <c r="M13" s="46"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="G14" s="5"/>
-      <c r="M14" s="47"/>
+      <c r="M14" s="46"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="G15" s="5"/>
-      <c r="M15" s="47"/>
+      <c r="M15" s="46"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="G16" s="5"/>
-      <c r="M16" s="47"/>
+      <c r="M16" s="46"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.35">
       <c r="G17" s="5"/>
@@ -48249,147 +48649,250 @@
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="9"/>
     </row>
     <row r="22" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="73"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="13"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="65"/>
     </row>
     <row r="24" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="M24" s="47">
+      <c r="G24" s="62"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="84">
         <f>D28</f>
-        <v>0.90322580645161288</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="18">
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="M25" s="48"/>
+      <c r="D25" s="17">
+        <f>E25/F25</f>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="E25">
+        <v>32</v>
+      </c>
+      <c r="F25">
+        <v>34</v>
+      </c>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="83"/>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="18">
-        <v>0.90322580645161288</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="M26" s="48"/>
+      <c r="D26" s="17">
+        <f t="shared" ref="D26:D30" si="0">E26/F26</f>
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="E26">
+        <v>32</v>
+      </c>
+      <c r="F26">
+        <v>35</v>
+      </c>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="83"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="18">
-        <v>0.87096774193548387</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="M27" s="6"/>
+      <c r="D27" s="17">
+        <f t="shared" si="0"/>
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="E27">
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <v>36</v>
+      </c>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="65"/>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="18">
-        <v>0.90322580645161288</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="M28" s="6"/>
+      <c r="D28" s="17">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E28">
+        <v>32</v>
+      </c>
+      <c r="F28">
+        <v>36</v>
+      </c>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="65"/>
     </row>
     <row r="29" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>115</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="M29" s="14">
+      <c r="D29" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>32</v>
+      </c>
+      <c r="F29">
+        <v>32</v>
+      </c>
+      <c r="G29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="66">
         <f>D27</f>
-        <v>0.87096774193548387</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
     <row r="30" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>116</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="M30" s="15" t="s">
+      <c r="D30" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>32</v>
+      </c>
+      <c r="F30">
+        <v>32</v>
+      </c>
+      <c r="G30" s="62"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="67" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G31" s="5"/>
-      <c r="M31" s="6"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="65"/>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G32" s="5"/>
-      <c r="M32" s="6"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="65"/>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G33" s="5"/>
-      <c r="M33" s="6"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="65"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G34" s="5"/>
-      <c r="M34" s="6"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="65"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="70"/>
     </row>
     <row r="38" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="54"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="53"/>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="13"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="12"/>
     </row>
     <row r="40" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
@@ -48399,7 +48902,7 @@
         <v>113</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="M40" s="47">
+      <c r="M40" s="46">
         <f>D46</f>
         <v>0</v>
       </c>
@@ -48415,7 +48918,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="5"/>
-      <c r="M41" s="48"/>
+      <c r="M41" s="47"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
@@ -48428,7 +48931,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="5"/>
-      <c r="M42" s="48"/>
+      <c r="M42" s="47"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
@@ -48461,7 +48964,7 @@
         <v>115</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="M45" s="14">
+      <c r="M45" s="13">
         <f>D45</f>
         <v>0</v>
       </c>
@@ -48471,7 +48974,7 @@
         <v>139</v>
       </c>
       <c r="G46" s="5"/>
-      <c r="M46" s="15" t="s">
+      <c r="M46" s="14" t="s">
         <v>111</v>
       </c>
     </row>
@@ -48483,22 +48986,281 @@
       <c r="G48" s="5"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="7:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="7:31" x14ac:dyDescent="0.35">
       <c r="G49" s="5"/>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="7:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="7:31" x14ac:dyDescent="0.35">
       <c r="G50" s="5"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="10"/>
+    <row r="51" spans="7:31" x14ac:dyDescent="0.35">
+      <c r="G51" s="7"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="9"/>
+    </row>
+    <row r="56" spans="7:31" x14ac:dyDescent="0.35">
+      <c r="N56" s="56"/>
+      <c r="Q56" s="4"/>
+    </row>
+    <row r="57" spans="7:31" x14ac:dyDescent="0.35">
+      <c r="N57" s="56"/>
+      <c r="Q57" s="4"/>
+    </row>
+    <row r="62" spans="7:31" x14ac:dyDescent="0.35">
+      <c r="O62" t="s">
+        <v>136</v>
+      </c>
+      <c r="P62" t="s">
+        <v>135</v>
+      </c>
+      <c r="R62" t="s">
+        <v>136</v>
+      </c>
+      <c r="S62" t="s">
+        <v>135</v>
+      </c>
+      <c r="U62" t="s">
+        <v>136</v>
+      </c>
+      <c r="V62" t="s">
+        <v>135</v>
+      </c>
+      <c r="X62" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="7:31" x14ac:dyDescent="0.35">
+      <c r="N63" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="O63">
+        <v>4</v>
+      </c>
+      <c r="P63">
+        <v>4</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>4</v>
+      </c>
+      <c r="S63">
+        <v>4</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>4</v>
+      </c>
+      <c r="V63">
+        <v>5</v>
+      </c>
+      <c r="W63">
+        <v>0.8</v>
+      </c>
+      <c r="X63">
+        <v>4</v>
+      </c>
+      <c r="Y63">
+        <v>5</v>
+      </c>
+      <c r="Z63">
+        <v>0.8</v>
+      </c>
+      <c r="AA63">
+        <v>4</v>
+      </c>
+      <c r="AB63">
+        <v>4</v>
+      </c>
+      <c r="AC63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="7:31" x14ac:dyDescent="0.35">
+      <c r="N64" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="O64">
+        <v>28</v>
+      </c>
+      <c r="P64">
+        <v>30</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="R64">
+        <v>28</v>
+      </c>
+      <c r="S64">
+        <v>31</v>
+      </c>
+      <c r="T64">
+        <v>0.90322580645161288</v>
+      </c>
+      <c r="U64">
+        <v>27</v>
+      </c>
+      <c r="V64">
+        <v>31</v>
+      </c>
+      <c r="W64">
+        <v>0.87096774193548387</v>
+      </c>
+      <c r="X64">
+        <v>28</v>
+      </c>
+      <c r="Y64">
+        <v>31</v>
+      </c>
+      <c r="Z64">
+        <v>0.90322580645161288</v>
+      </c>
+      <c r="AA64">
+        <v>28</v>
+      </c>
+      <c r="AB64">
+        <v>28</v>
+      </c>
+      <c r="AC64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="14:32" x14ac:dyDescent="0.35">
+      <c r="O65" s="57">
+        <f>SUM(O63:O64)</f>
+        <v>32</v>
+      </c>
+      <c r="P65" s="57">
+        <f>SUM(P63:P64)</f>
+        <v>34</v>
+      </c>
+      <c r="Q65" s="57"/>
+      <c r="R65" s="57">
+        <f>SUM(R63:R64)</f>
+        <v>32</v>
+      </c>
+      <c r="S65" s="57">
+        <f>SUM(S63:S64)</f>
+        <v>35</v>
+      </c>
+      <c r="T65" s="57"/>
+      <c r="U65" s="57">
+        <f>SUM(U63:U64)</f>
+        <v>31</v>
+      </c>
+      <c r="V65" s="57">
+        <f>SUM(V63:V64)</f>
+        <v>36</v>
+      </c>
+      <c r="W65" s="57"/>
+      <c r="X65" s="57">
+        <f>SUM(X63:X64)</f>
+        <v>32</v>
+      </c>
+      <c r="Y65" s="57">
+        <f>SUM(Y63:Y64)</f>
+        <v>36</v>
+      </c>
+      <c r="Z65" s="57"/>
+      <c r="AA65" s="57">
+        <f>SUM(AA63:AA64)</f>
+        <v>32</v>
+      </c>
+      <c r="AB65" s="57">
+        <f>SUM(AB63:AB64)</f>
+        <v>32</v>
+      </c>
+      <c r="AC65" s="57"/>
+      <c r="AD65" s="57">
+        <f>SUM(AD66:AD67)</f>
+        <v>32</v>
+      </c>
+      <c r="AE65" s="57">
+        <f>SUM(AE66:AE67)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="14:32" x14ac:dyDescent="0.35">
+      <c r="N66" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>4</v>
+      </c>
+      <c r="AE66">
+        <v>4</v>
+      </c>
+      <c r="AF66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="14:32" x14ac:dyDescent="0.35">
+      <c r="N67" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>28</v>
+      </c>
+      <c r="AE67">
+        <v>28</v>
+      </c>
+      <c r="AF67">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -48518,19 +49280,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AC512A-56E9-4848-BDDF-06371D786542}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B2:O51"/>
+  <dimension ref="B2:AF61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="64" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView showGridLines="0" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
     <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="32.1796875" customWidth="1"/>
+    <col min="14" max="14" width="54.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.35">
@@ -48614,99 +49379,144 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="65"/>
     </row>
     <row r="10" spans="2:13" ht="92" x14ac:dyDescent="2">
-      <c r="G10" s="5"/>
-      <c r="M10" s="7">
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="64">
         <f>C5</f>
         <v>0.95295634920634931</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G11" s="5"/>
-      <c r="M11" s="6"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="65"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G12" s="5"/>
-      <c r="M12" s="6"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="65"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G13" s="5"/>
-      <c r="M13" s="6"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="65"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G14" s="5"/>
-      <c r="M14" s="6"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="65"/>
     </row>
     <row r="15" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="G15" s="5"/>
-      <c r="M15" s="14">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="66">
         <v>0.97</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="G16" s="5"/>
-      <c r="M16" s="15" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="67" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="G17" s="5"/>
-      <c r="M17" s="6"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="65"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="G18" s="5"/>
-      <c r="M18" s="6"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="65"/>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70"/>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="O20" s="17"/>
+      <c r="O20" s="16"/>
     </row>
     <row r="22" spans="3:15" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="73"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="13"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="65"/>
     </row>
     <row r="24" spans="3:15" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
@@ -48718,8 +49528,13 @@
       <c r="F24" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="M24" s="55">
+      <c r="G24" s="62"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="77">
         <v>100</v>
       </c>
     </row>
@@ -48729,16 +49544,21 @@
       </c>
       <c r="D25" s="4">
         <f>E25/F25</f>
-        <v>1</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F25">
-        <v>8</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="M25" s="55"/>
+        <v>22</v>
+      </c>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="77"/>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
@@ -48749,13 +49569,18 @@
         <v>0.875</v>
       </c>
       <c r="E26">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F26">
-        <v>8</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="M26" s="55"/>
+        <v>24</v>
+      </c>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="77"/>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
@@ -48763,16 +49588,21 @@
       </c>
       <c r="D27" s="4">
         <f t="shared" si="0"/>
-        <v>0.875</v>
+        <v>0.86956521739130432</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F27">
-        <v>8</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="M27" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="65"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
@@ -48780,16 +49610,21 @@
       </c>
       <c r="D28" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.95454545454545459</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F28">
-        <v>8</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="M28" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="65"/>
     </row>
     <row r="29" spans="3:15" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
@@ -48800,13 +49635,18 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="M29" s="14">
+        <v>24</v>
+      </c>
+      <c r="G29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="66">
         <f>D29</f>
         <v>1</v>
       </c>
@@ -48820,60 +49660,85 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="M30" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="62"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="67" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="G31" s="5"/>
-      <c r="M31" s="6"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="65"/>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="G32" s="5"/>
-      <c r="M32" s="6"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="65"/>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G33" s="5"/>
-      <c r="M33" s="6"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="65"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G34" s="5"/>
-      <c r="M34" s="6"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="65"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="70"/>
     </row>
     <row r="38" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="54"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="53"/>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="13"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="12"/>
     </row>
     <row r="40" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
@@ -48886,7 +49751,7 @@
         <v>135</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="M40" s="47">
+      <c r="M40" s="46">
         <f>D46</f>
         <v>0</v>
       </c>
@@ -48903,10 +49768,10 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G41" s="5"/>
-      <c r="M41" s="48"/>
+      <c r="M41" s="47"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
@@ -48914,16 +49779,16 @@
       </c>
       <c r="D42" s="4">
         <f t="shared" ref="D42:D46" si="1">E42/F42</f>
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G42" s="5"/>
-      <c r="M42" s="48"/>
+      <c r="M42" s="47"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
@@ -48931,13 +49796,13 @@
       </c>
       <c r="D43" s="4">
         <f t="shared" si="1"/>
-        <v>0.125</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G43" s="5"/>
       <c r="M43" s="6"/>
@@ -48954,7 +49819,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G44" s="5"/>
       <c r="M44" s="6"/>
@@ -48968,10 +49833,10 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="M45" s="14">
+      <c r="M45" s="13">
         <f>D45</f>
         <v>0</v>
       </c>
@@ -48985,10 +49850,10 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G46" s="5"/>
-      <c r="M46" s="15" t="s">
+      <c r="M46" s="14" t="s">
         <v>111</v>
       </c>
     </row>
@@ -49000,22 +49865,363 @@
       <c r="G48" s="5"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="7:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="7:32" x14ac:dyDescent="0.35">
       <c r="G49" s="5"/>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="7:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="7:32" x14ac:dyDescent="0.35">
       <c r="G50" s="5"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="10"/>
+    <row r="51" spans="7:32" x14ac:dyDescent="0.35">
+      <c r="G51" s="7"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="9"/>
+    </row>
+    <row r="55" spans="7:32" x14ac:dyDescent="0.35">
+      <c r="N55" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="O55" s="59"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="60">
+        <v>0</v>
+      </c>
+      <c r="R55" s="59"/>
+      <c r="S55" s="59"/>
+      <c r="T55" s="59">
+        <v>0</v>
+      </c>
+      <c r="U55" s="59"/>
+      <c r="V55" s="59"/>
+      <c r="W55" s="59">
+        <v>0</v>
+      </c>
+      <c r="X55" s="59"/>
+      <c r="Y55" s="59"/>
+      <c r="Z55" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="59">
+        <v>2</v>
+      </c>
+      <c r="AB55" s="59">
+        <v>2</v>
+      </c>
+      <c r="AC55" s="59">
+        <v>1</v>
+      </c>
+      <c r="AD55" s="59">
+        <v>2</v>
+      </c>
+      <c r="AE55" s="59">
+        <v>2</v>
+      </c>
+      <c r="AF55" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="7:32" x14ac:dyDescent="0.35">
+      <c r="N56" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="O56" s="59"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="60">
+        <v>0</v>
+      </c>
+      <c r="R56" s="59"/>
+      <c r="S56" s="59"/>
+      <c r="T56" s="59">
+        <v>0</v>
+      </c>
+      <c r="U56" s="59"/>
+      <c r="V56" s="59"/>
+      <c r="W56" s="59">
+        <v>0</v>
+      </c>
+      <c r="X56" s="59"/>
+      <c r="Y56" s="59"/>
+      <c r="Z56" s="59">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="59">
+        <v>3</v>
+      </c>
+      <c r="AB56" s="59">
+        <v>3</v>
+      </c>
+      <c r="AC56" s="59">
+        <v>1</v>
+      </c>
+      <c r="AD56" s="59">
+        <v>3</v>
+      </c>
+      <c r="AE56" s="59">
+        <v>3</v>
+      </c>
+      <c r="AF56" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="7:32" x14ac:dyDescent="0.35">
+      <c r="N57" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="O57" s="59">
+        <v>3</v>
+      </c>
+      <c r="P57" s="59">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="60">
+        <v>0.75</v>
+      </c>
+      <c r="R57" s="59">
+        <v>4</v>
+      </c>
+      <c r="S57" s="59">
+        <v>4</v>
+      </c>
+      <c r="T57" s="59">
+        <v>1</v>
+      </c>
+      <c r="U57" s="59">
+        <v>3</v>
+      </c>
+      <c r="V57" s="59">
+        <v>4</v>
+      </c>
+      <c r="W57" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="X57" s="59">
+        <v>3</v>
+      </c>
+      <c r="Y57" s="59">
+        <v>4</v>
+      </c>
+      <c r="Z57" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="AA57" s="59">
+        <v>6</v>
+      </c>
+      <c r="AB57" s="59">
+        <v>6</v>
+      </c>
+      <c r="AC57" s="59">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="59">
+        <v>4</v>
+      </c>
+      <c r="AE57" s="59">
+        <v>4</v>
+      </c>
+      <c r="AF57" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="7:32" x14ac:dyDescent="0.35">
+      <c r="N58" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="O58" s="59">
+        <v>8</v>
+      </c>
+      <c r="P58" s="59">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="60">
+        <v>1</v>
+      </c>
+      <c r="R58" s="59">
+        <v>7</v>
+      </c>
+      <c r="S58" s="59">
+        <v>8</v>
+      </c>
+      <c r="T58" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="U58" s="59">
+        <v>7</v>
+      </c>
+      <c r="V58" s="59">
+        <v>8</v>
+      </c>
+      <c r="W58" s="59">
+        <v>0.875</v>
+      </c>
+      <c r="X58" s="59">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="59">
+        <v>8</v>
+      </c>
+      <c r="Z58" s="59">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="59">
+        <v>3</v>
+      </c>
+      <c r="AB58" s="59">
+        <v>3</v>
+      </c>
+      <c r="AC58" s="59">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="59">
+        <v>2</v>
+      </c>
+      <c r="AE58" s="59">
+        <v>2</v>
+      </c>
+      <c r="AF58" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="7:32" x14ac:dyDescent="0.35">
+      <c r="N59" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="O59" s="59">
+        <v>7</v>
+      </c>
+      <c r="P59" s="59">
+        <v>10</v>
+      </c>
+      <c r="Q59" s="60">
+        <v>0.7</v>
+      </c>
+      <c r="R59" s="59">
+        <v>10</v>
+      </c>
+      <c r="S59" s="59">
+        <v>12</v>
+      </c>
+      <c r="T59" s="59">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="U59" s="59">
+        <v>10</v>
+      </c>
+      <c r="V59" s="59">
+        <v>11</v>
+      </c>
+      <c r="W59" s="59">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="X59" s="59">
+        <v>10</v>
+      </c>
+      <c r="Y59" s="59">
+        <v>10</v>
+      </c>
+      <c r="Z59" s="59">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="59">
+        <v>10</v>
+      </c>
+      <c r="AB59" s="59">
+        <v>10</v>
+      </c>
+      <c r="AC59" s="59">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="59">
+        <v>8</v>
+      </c>
+      <c r="AE59" s="59">
+        <v>8</v>
+      </c>
+      <c r="AF59" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="7:32" x14ac:dyDescent="0.35">
+      <c r="N60" s="59"/>
+      <c r="O60" s="61">
+        <f>SUM(O55:O59)</f>
+        <v>18</v>
+      </c>
+      <c r="P60" s="61">
+        <f>SUM(P55:P59)</f>
+        <v>22</v>
+      </c>
+      <c r="Q60" s="61"/>
+      <c r="R60" s="61">
+        <f>SUM(R55:R59)</f>
+        <v>21</v>
+      </c>
+      <c r="S60" s="61">
+        <f>SUM(S55:S59)</f>
+        <v>24</v>
+      </c>
+      <c r="T60" s="61"/>
+      <c r="U60" s="61">
+        <f>SUM(U55:U59)</f>
+        <v>20</v>
+      </c>
+      <c r="V60" s="61">
+        <f>SUM(V55:V59)</f>
+        <v>23</v>
+      </c>
+      <c r="W60" s="61"/>
+      <c r="X60" s="61">
+        <f>SUM(X55:X59)</f>
+        <v>21</v>
+      </c>
+      <c r="Y60" s="61">
+        <f>SUM(Y55:Y59)</f>
+        <v>22</v>
+      </c>
+      <c r="Z60" s="61"/>
+      <c r="AA60" s="61">
+        <f>SUM(AA55:AA59)</f>
+        <v>24</v>
+      </c>
+      <c r="AB60" s="61">
+        <f>SUM(AB55:AB59)</f>
+        <v>24</v>
+      </c>
+      <c r="AC60" s="61"/>
+      <c r="AD60" s="61">
+        <f>SUM(AD55:AD59)</f>
+        <v>19</v>
+      </c>
+      <c r="AE60" s="61">
+        <f>SUM(AE55:AE59)</f>
+        <v>19</v>
+      </c>
+      <c r="AF60" s="59"/>
+    </row>
+    <row r="61" spans="7:32" x14ac:dyDescent="0.35">
+      <c r="N61" s="59"/>
+      <c r="O61" s="59"/>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="59"/>
+      <c r="R61" s="59"/>
+      <c r="S61" s="59"/>
+      <c r="T61" s="59"/>
+      <c r="U61" s="59"/>
+      <c r="V61" s="59"/>
+      <c r="W61" s="59"/>
+      <c r="X61" s="59"/>
+      <c r="Y61" s="59"/>
+      <c r="Z61" s="59"/>
+      <c r="AA61" s="59"/>
+      <c r="AB61" s="59"/>
+      <c r="AC61" s="59"/>
+      <c r="AD61" s="59"/>
+      <c r="AE61" s="59"/>
+      <c r="AF61" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -49036,8 +50242,623 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="B2:M51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A27" zoomScale="62" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="62" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="10.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.93878117913832215</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.96230158730158744</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.92410714285714279</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.93904761904761913</v>
+      </c>
+      <c r="G3" s="4">
+        <f>AVERAGE(C3:F3)</f>
+        <v>0.94105938208616791</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.97904761904761917</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.98015873015873023</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.98214285714285721</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <f>AVERAGE(C4:F4)</f>
+        <v>0.98533730158730171</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.99019607843137258</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.96323529411764708</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.94823529411764707</v>
+      </c>
+      <c r="G5" s="4">
+        <f>AVERAGE(C5:F5)</f>
+        <v>0.96500000000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="33.5" x14ac:dyDescent="0.75">
+      <c r="G8" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="65"/>
+    </row>
+    <row r="10" spans="2:13" ht="92" x14ac:dyDescent="2">
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="64">
+        <f>C5</f>
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="65"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="65"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="65"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="65"/>
+    </row>
+    <row r="15" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="66">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="G17" s="62"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="65"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="G18" s="62"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="65"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="G19" s="68"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70"/>
+    </row>
+    <row r="22" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
+      <c r="G22" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="73"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="65"/>
+    </row>
+    <row r="24" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="62"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="78">
+        <f>D30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="17">
+        <f>E25/F25</f>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>21</v>
+      </c>
+      <c r="F25">
+        <v>21</v>
+      </c>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="78"/>
+    </row>
+    <row r="26" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="17">
+        <f t="shared" ref="D26:D30" si="0">E26/F26</f>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>21</v>
+      </c>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="78"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="17">
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E27">
+        <v>18</v>
+      </c>
+      <c r="F27">
+        <v>21</v>
+      </c>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="65"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="17">
+        <f t="shared" si="0"/>
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="E28">
+        <v>17</v>
+      </c>
+      <c r="F28">
+        <v>21</v>
+      </c>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="65"/>
+    </row>
+    <row r="29" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>18</v>
+      </c>
+      <c r="F29">
+        <v>18</v>
+      </c>
+      <c r="G29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="79">
+        <f>D29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30" s="62"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="G31" s="62"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="65"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="G32" s="62"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="65"/>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="G33" s="62"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="65"/>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="G34" s="62"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="65"/>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="G35" s="68"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="70"/>
+    </row>
+    <row r="38" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
+      <c r="G38" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="50"/>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="M40" s="46">
+        <f>D46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="4">
+        <f>E41/F41</f>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>21</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="M41" s="46"/>
+    </row>
+    <row r="42" spans="3:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" ref="D42:D46" si="1">E42/F42</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>21</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="M42" s="46"/>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" si="1"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>21</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="M43" s="6"/>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" si="1"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>21</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="M44" s="6"/>
+    </row>
+    <row r="45" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>18</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="M45" s="13">
+        <f>D45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="C46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>20</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="M46" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="G47" s="5"/>
+      <c r="M47" s="6"/>
+    </row>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="G48" s="5"/>
+      <c r="M48" s="6"/>
+    </row>
+    <row r="49" spans="7:13" x14ac:dyDescent="0.35">
+      <c r="G49" s="5"/>
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="7:13" x14ac:dyDescent="0.35">
+      <c r="G50" s="5"/>
+      <c r="M50" s="6"/>
+    </row>
+    <row r="51" spans="7:13" x14ac:dyDescent="0.35">
+      <c r="G51" s="7"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="M40:M42"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="G22:M22"/>
+    <mergeCell ref="G8:M8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D56743-AF54-41C1-A960-CB8965A03AF5}">
+  <sheetPr codeName="Hoja2"/>
+  <dimension ref="B2:M51"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="73" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -49071,20 +50892,20 @@
         <v>101</v>
       </c>
       <c r="C3" s="2">
-        <v>0.93878117913832215</v>
+        <v>0.97290283790283782</v>
       </c>
       <c r="D3" s="2">
-        <v>0.96230158730158744</v>
+        <v>0.98106060606060597</v>
       </c>
       <c r="E3" s="2">
-        <v>0.92410714285714279</v>
+        <v>0.98421717171717182</v>
       </c>
       <c r="F3" s="2">
-        <v>0.93904761904761913</v>
+        <v>0.97313131313131307</v>
       </c>
       <c r="G3" s="4">
         <f>AVERAGE(C3:F3)</f>
-        <v>0.94105938208616791</v>
+        <v>0.97782798220298206</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.35">
@@ -49092,20 +50913,20 @@
         <v>102</v>
       </c>
       <c r="C4" s="2">
-        <v>0.97904761904761917</v>
+        <v>0.93835714285714289</v>
       </c>
       <c r="D4" s="2">
-        <v>0.98015873015873023</v>
+        <v>0.95925925925925926</v>
       </c>
       <c r="E4" s="2">
-        <v>0.98214285714285721</v>
+        <v>0.93402777777777779</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>0.93822222222222218</v>
       </c>
       <c r="G4" s="4">
         <f>AVERAGE(C4:F4)</f>
-        <v>0.98533730158730171</v>
+        <v>0.94246660052910047</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.35">
@@ -49113,108 +50934,158 @@
         <v>128</v>
       </c>
       <c r="C5" s="2">
-        <v>0.95833333333333337</v>
+        <v>0.95678718400940643</v>
       </c>
       <c r="D5" s="2">
-        <v>0.99019607843137258</v>
+        <v>0.92592592592592593</v>
       </c>
       <c r="E5" s="2">
-        <v>0.96323529411764708</v>
+        <v>0.96604938271604934</v>
       </c>
       <c r="F5" s="2">
-        <v>0.94823529411764707</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="G5" s="4">
         <f>AVERAGE(C5:F5)</f>
-        <v>0.96500000000000008</v>
+        <v>0.95293136390358613</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G9" s="5"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="2:13" ht="92" x14ac:dyDescent="2">
-      <c r="G10" s="5"/>
-      <c r="M10" s="7">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="65"/>
+    </row>
+    <row r="10" spans="2:13" ht="89.5" x14ac:dyDescent="1.95">
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="80">
         <f>C5</f>
-        <v>0.95833333333333337</v>
+        <v>0.95678718400940643</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G11" s="5"/>
-      <c r="M11" s="6"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="65"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G12" s="5"/>
-      <c r="M12" s="6"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="65"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G13" s="5"/>
-      <c r="M13" s="6"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="65"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G14" s="5"/>
-      <c r="M14" s="6"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="65"/>
     </row>
     <row r="15" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="G15" s="5"/>
-      <c r="M15" s="14">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="79">
         <v>0.97</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="G16" s="5"/>
-      <c r="M16" s="15" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="67" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G17" s="5"/>
-      <c r="M17" s="6"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="65"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G18" s="5"/>
-      <c r="M18" s="6"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="65"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70"/>
     </row>
     <row r="22" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="73"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="13"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="65"/>
     </row>
     <row r="24" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
@@ -49226,9 +51097,13 @@
       <c r="F24" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="M24" s="56">
-        <f>D30</f>
+      <c r="G24" s="62"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="78">
         <v>1</v>
       </c>
     </row>
@@ -49236,153 +51111,203 @@
       <c r="C25" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="17">
         <f>E25/F25</f>
-        <v>1</v>
+        <v>0.93902439024390238</v>
       </c>
       <c r="E25">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="F25">
-        <v>21</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="M25" s="57"/>
+        <v>82</v>
+      </c>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="81"/>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="17">
         <f t="shared" ref="D26:D30" si="0">E26/F26</f>
-        <v>0.95238095238095233</v>
+        <v>0.90243902439024393</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="F26">
-        <v>21</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="M26" s="57"/>
+        <v>82</v>
+      </c>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="81"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="17">
         <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
+        <v>0.90361445783132532</v>
       </c>
       <c r="E27">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="F27">
-        <v>21</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="M27" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="65"/>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="17">
         <f t="shared" si="0"/>
-        <v>0.80952380952380953</v>
+        <v>0.84444444444444444</v>
       </c>
       <c r="E28">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="F28">
-        <v>21</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="M28" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="65"/>
     </row>
     <row r="29" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="18">
+        <v>102</v>
+      </c>
+      <c r="D29" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E29">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="F29">
-        <v>18</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="M29" s="16">
+        <v>80</v>
+      </c>
+      <c r="G29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="79">
         <f>D29</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="18">
+        <v>134</v>
+      </c>
+      <c r="D30" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="F30">
-        <v>20</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="M30" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="62"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="67" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G31" s="5"/>
-      <c r="M31" s="6"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="65"/>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G32" s="5"/>
-      <c r="M32" s="6"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="65"/>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G33" s="5"/>
-      <c r="M33" s="6"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="65"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G34" s="5"/>
-      <c r="M34" s="6"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="65"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="70"/>
     </row>
     <row r="38" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="54"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="53"/>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="13"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="12"/>
     </row>
     <row r="40" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
@@ -49395,7 +51320,7 @@
         <v>135</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="M40" s="47">
+      <c r="M40" s="46">
         <f>D46</f>
         <v>0</v>
       </c>
@@ -49406,16 +51331,16 @@
       </c>
       <c r="D41" s="4">
         <f>E41/F41</f>
-        <v>0</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G41" s="5"/>
-      <c r="M41" s="48"/>
+      <c r="M41" s="47"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
@@ -49423,16 +51348,16 @@
       </c>
       <c r="D42" s="4">
         <f t="shared" ref="D42:D46" si="1">E42/F42</f>
-        <v>4.7619047619047616E-2</v>
+        <v>3.6585365853658534E-2</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G42" s="5"/>
-      <c r="M42" s="48"/>
+      <c r="M42" s="47"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
@@ -49440,13 +51365,13 @@
       </c>
       <c r="D43" s="4">
         <f t="shared" si="1"/>
-        <v>9.5238095238095233E-2</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="G43" s="5"/>
       <c r="M43" s="6"/>
@@ -49457,13 +51382,13 @@
       </c>
       <c r="D44" s="4">
         <f t="shared" si="1"/>
-        <v>4.7619047619047616E-2</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="G44" s="5"/>
       <c r="M44" s="6"/>
@@ -49477,10 +51402,10 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="M45" s="14">
+      <c r="M45" s="15">
         <f>D45</f>
         <v>0</v>
       </c>
@@ -49494,10 +51419,10 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="G46" s="5"/>
-      <c r="M46" s="15" t="s">
+      <c r="M46" s="14" t="s">
         <v>111</v>
       </c>
     </row>
@@ -49518,521 +51443,13 @@
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="G22:M22"/>
-    <mergeCell ref="M24:M26"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="M40:M42"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D56743-AF54-41C1-A960-CB8965A03AF5}">
-  <sheetPr codeName="Hoja2"/>
-  <dimension ref="B2:M51"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A30" zoomScale="73" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.97290283790283782</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.98106060606060597</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.98421717171717182</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.97313131313131307</v>
-      </c>
-      <c r="G3" s="4">
-        <f>AVERAGE(C3:F3)</f>
-        <v>0.97782798220298206</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.93835714285714289</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.95925925925925926</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.93402777777777779</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.93822222222222218</v>
-      </c>
-      <c r="G4" s="4">
-        <f>AVERAGE(C4:F4)</f>
-        <v>0.94246660052910047</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.95678718400940643</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.92592592592592593</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.96604938271604934</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.96296296296296291</v>
-      </c>
-      <c r="G5" s="4">
-        <f>AVERAGE(C5:F5)</f>
-        <v>0.95293136390358613</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G8" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G9" s="5"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="2:13" ht="89.5" x14ac:dyDescent="1.95">
-      <c r="G10" s="5"/>
-      <c r="M10" s="58">
-        <f>C5</f>
-        <v>0.95678718400940643</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G11" s="5"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G12" s="5"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G13" s="5"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G14" s="5"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="G15" s="5"/>
-      <c r="M15" s="16">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="G16" s="5"/>
-      <c r="M16" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G17" s="5"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G18" s="5"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
-    </row>
-    <row r="22" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G22" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="13"/>
-    </row>
-    <row r="24" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E24" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24" t="s">
-        <v>135</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="M24" s="56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="18">
-        <f>E25/F25</f>
-        <v>0.93902439024390238</v>
-      </c>
-      <c r="E25">
-        <v>77</v>
-      </c>
-      <c r="F25">
-        <v>82</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="M25" s="57"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="18">
-        <f t="shared" ref="D26:D30" si="0">E26/F26</f>
-        <v>0.90243902439024393</v>
-      </c>
-      <c r="E26">
-        <v>74</v>
-      </c>
-      <c r="F26">
-        <v>82</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="M26" s="57"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C27" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="18">
-        <f t="shared" si="0"/>
-        <v>0.90361445783132532</v>
-      </c>
-      <c r="E27">
-        <v>75</v>
-      </c>
-      <c r="F27">
-        <v>83</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="M27" s="6"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C28" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="18">
-        <f t="shared" si="0"/>
-        <v>0.84444444444444444</v>
-      </c>
-      <c r="E28">
-        <v>76</v>
-      </c>
-      <c r="F28">
-        <v>90</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="M28" s="6"/>
-    </row>
-    <row r="29" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>80</v>
-      </c>
-      <c r="F29">
-        <v>80</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="M29" s="16">
-        <f>D29</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C30" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" s="18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>79</v>
-      </c>
-      <c r="F30">
-        <v>79</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="M30" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G31" s="5"/>
-      <c r="M31" s="6"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G32" s="5"/>
-      <c r="M32" s="6"/>
-    </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G33" s="5"/>
-      <c r="M33" s="6"/>
-    </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G34" s="5"/>
-      <c r="M34" s="6"/>
-    </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
-    </row>
-    <row r="38" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G38" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="54"/>
-    </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="13"/>
-    </row>
-    <row r="40" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D40" t="s">
-        <v>114</v>
-      </c>
-      <c r="E40" t="s">
-        <v>113</v>
-      </c>
-      <c r="F40" t="s">
-        <v>135</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="M40" s="47">
-        <f>D46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C41" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="4">
-        <f>E41/F41</f>
-        <v>2.4390243902439025E-2</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <v>82</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="M41" s="48"/>
-    </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C42" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" s="4">
-        <f t="shared" ref="D42:D46" si="1">E42/F42</f>
-        <v>3.6585365853658534E-2</v>
-      </c>
-      <c r="E42">
-        <v>3</v>
-      </c>
-      <c r="F42">
-        <v>82</v>
-      </c>
-      <c r="G42" s="5"/>
-      <c r="M42" s="48"/>
-    </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C43" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>83</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="M43" s="6"/>
-    </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="C44" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="4">
-        <f t="shared" si="1"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44">
-        <v>90</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="M44" s="6"/>
-    </row>
-    <row r="45" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C45" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>80</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="M45" s="16">
-        <f>D45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C46" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>79</v>
-      </c>
-      <c r="G46" s="5"/>
-      <c r="M46" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G47" s="5"/>
-      <c r="M47" s="6"/>
-    </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G48" s="5"/>
-      <c r="M48" s="6"/>
-    </row>
-    <row r="49" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G49" s="5"/>
-      <c r="M49" s="6"/>
-    </row>
-    <row r="50" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G50" s="5"/>
-      <c r="M50" s="6"/>
-    </row>
-    <row r="51" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="10"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -50053,8 +51470,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="B2:M51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B30" zoomScale="64" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="64" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -50147,91 +51564,141 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G9" s="5"/>
-      <c r="M9" s="6"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="65"/>
     </row>
     <row r="10" spans="2:13" ht="92" x14ac:dyDescent="2">
-      <c r="G10" s="5"/>
-      <c r="M10" s="7">
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="64">
         <f>C5</f>
         <v>0.96049344375431323</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G11" s="5"/>
-      <c r="M11" s="6"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="65"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G12" s="5"/>
-      <c r="M12" s="6"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="65"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G13" s="5"/>
-      <c r="M13" s="6"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="65"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G14" s="5"/>
-      <c r="M14" s="6"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="65"/>
     </row>
     <row r="15" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="G15" s="5"/>
-      <c r="M15" s="14">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="66">
         <v>0.96</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="G16" s="5"/>
-      <c r="M16" s="15" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="67" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G17" s="5"/>
-      <c r="M17" s="6"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="65"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G18" s="5"/>
-      <c r="M18" s="6"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="65"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70"/>
     </row>
     <row r="22" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="73"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="13"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="76"/>
     </row>
     <row r="24" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
@@ -50243,8 +51710,13 @@
       <c r="F24" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="M24" s="56">
+      <c r="G24" s="62"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="78">
         <f>D30</f>
         <v>1</v>
       </c>
@@ -50253,7 +51725,7 @@
       <c r="C25" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="17">
         <f>E25/F25</f>
         <v>0.9</v>
       </c>
@@ -50263,14 +51735,19 @@
       <c r="F25">
         <v>50</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="M25" s="57"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="81"/>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="17">
         <f t="shared" ref="D26:D30" si="0">E26/F26</f>
         <v>0.90196078431372551</v>
       </c>
@@ -50280,14 +51757,19 @@
       <c r="F26">
         <v>51</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="M26" s="57"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="81"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="17">
         <f t="shared" si="0"/>
         <v>0.94</v>
       </c>
@@ -50297,14 +51779,19 @@
       <c r="F27">
         <v>50</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="M27" s="6"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="65"/>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="17">
         <f t="shared" si="0"/>
         <v>0.92156862745098034</v>
       </c>
@@ -50314,14 +51801,19 @@
       <c r="F28">
         <v>51</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="M28" s="6"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="65"/>
     </row>
     <row r="29" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -50331,8 +51823,13 @@
       <c r="F29">
         <v>14</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="M29" s="14">
+      <c r="G29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="66">
         <f>D29</f>
         <v>1</v>
       </c>
@@ -50341,7 +51838,7 @@
       <c r="C30" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -50351,55 +51848,80 @@
       <c r="F30">
         <v>47</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="M30" s="15" t="s">
+      <c r="G30" s="62"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="67" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G31" s="5"/>
-      <c r="M31" s="6"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="65"/>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G32" s="5"/>
-      <c r="M32" s="6"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="65"/>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G33" s="5"/>
-      <c r="M33" s="6"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="65"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G34" s="5"/>
-      <c r="M34" s="6"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="65"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="70"/>
     </row>
     <row r="38" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="54"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="53"/>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="13"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="12"/>
     </row>
     <row r="40" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
@@ -50412,7 +51934,7 @@
         <v>135</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="M40" s="47">
+      <c r="M40" s="46">
         <f>D46</f>
         <v>0</v>
       </c>
@@ -50421,7 +51943,7 @@
       <c r="C41" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="60">
+      <c r="D41" s="55">
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="E41">
@@ -50431,13 +51953,13 @@
         <v>50</v>
       </c>
       <c r="G41" s="5"/>
-      <c r="M41" s="48"/>
+      <c r="M41" s="47"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="60">
+      <c r="D42" s="55">
         <v>2.1700000000000001E-2</v>
       </c>
       <c r="E42">
@@ -50447,13 +51969,13 @@
         <v>51</v>
       </c>
       <c r="G42" s="5"/>
-      <c r="M42" s="48"/>
+      <c r="M42" s="47"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="60">
+      <c r="D43" s="55">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="E43">
@@ -50469,7 +51991,7 @@
       <c r="C44" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="60">
+      <c r="D44" s="55">
         <v>2.1299999999999999E-2</v>
       </c>
       <c r="E44">
@@ -50485,12 +52007,12 @@
       <c r="C45" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="60"/>
+      <c r="D45" s="55"/>
       <c r="F45">
         <v>14</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="M45" s="14">
+      <c r="M45" s="13">
         <f>D45</f>
         <v>0</v>
       </c>
@@ -50499,12 +52021,12 @@
       <c r="C46" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="60"/>
+      <c r="D46" s="55"/>
       <c r="F46">
         <v>47</v>
       </c>
       <c r="G46" s="5"/>
-      <c r="M46" s="15" t="s">
+      <c r="M46" s="14" t="s">
         <v>111</v>
       </c>
     </row>
@@ -50525,13 +52047,13 @@
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="10"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -50552,8 +52074,8 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="B2:X61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="50" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="50" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -50610,7 +52132,7 @@
         <f>AVERAGE(C3:F3)</f>
         <v>0.9675516795865633</v>
       </c>
-      <c r="I3" s="39"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
@@ -50655,91 +52177,91 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="42"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="23"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="22"/>
     </row>
     <row r="10" spans="2:13" ht="92" x14ac:dyDescent="2">
-      <c r="G10" s="24"/>
-      <c r="M10" s="25">
+      <c r="G10" s="23"/>
+      <c r="M10" s="24">
         <f>C5</f>
         <v>0.98</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G11" s="24"/>
-      <c r="M11" s="26"/>
+      <c r="G11" s="23"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G12" s="24"/>
-      <c r="M12" s="26"/>
+      <c r="G12" s="23"/>
+      <c r="M12" s="25"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G13" s="24"/>
-      <c r="M13" s="26"/>
+      <c r="G13" s="23"/>
+      <c r="M13" s="25"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G14" s="24"/>
-      <c r="M14" s="26"/>
+      <c r="G14" s="23"/>
+      <c r="M14" s="25"/>
     </row>
     <row r="15" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="G15" s="24"/>
-      <c r="M15" s="27">
+      <c r="G15" s="23"/>
+      <c r="M15" s="26">
         <v>0.99</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="G16" s="24"/>
-      <c r="M16" s="28" t="s">
+      <c r="G16" s="23"/>
+      <c r="M16" s="27" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G17" s="24"/>
-      <c r="M17" s="26"/>
+      <c r="G17" s="23"/>
+      <c r="M17" s="25"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G18" s="24"/>
-      <c r="M18" s="26"/>
+      <c r="G18" s="23"/>
+      <c r="M18" s="25"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G19" s="29"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="30"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="22" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="42"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="41"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G23" s="24"/>
-      <c r="M23" s="26"/>
+      <c r="G23" s="23"/>
+      <c r="M23" s="25"/>
     </row>
     <row r="24" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
@@ -50751,8 +52273,8 @@
       <c r="F24" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="M24" s="43">
+      <c r="G24" s="23"/>
+      <c r="M24" s="42">
         <f>D30</f>
         <v>1</v>
       </c>
@@ -50761,7 +52283,7 @@
       <c r="C25" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="17">
         <f>E25/F25</f>
         <v>0.74117647058823533</v>
       </c>
@@ -50771,14 +52293,14 @@
       <c r="F25">
         <v>85</v>
       </c>
-      <c r="G25" s="24"/>
-      <c r="M25" s="44"/>
+      <c r="G25" s="23"/>
+      <c r="M25" s="43"/>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="17">
         <f t="shared" ref="D26:D30" si="0">E26/F26</f>
         <v>0.75903614457831325</v>
       </c>
@@ -50788,14 +52310,14 @@
       <c r="F26">
         <v>83</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="M26" s="44"/>
+      <c r="G26" s="23"/>
+      <c r="M26" s="43"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="17">
         <f t="shared" si="0"/>
         <v>0.79069767441860461</v>
       </c>
@@ -50805,14 +52327,14 @@
       <c r="F27">
         <v>86</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="M27" s="26"/>
+      <c r="G27" s="23"/>
+      <c r="M27" s="25"/>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="17">
         <f t="shared" si="0"/>
         <v>0.7931034482758621</v>
       </c>
@@ -50822,14 +52344,14 @@
       <c r="F28">
         <v>87</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="M28" s="26"/>
+      <c r="G28" s="23"/>
+      <c r="M28" s="25"/>
     </row>
     <row r="29" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -50839,8 +52361,8 @@
       <c r="F29">
         <v>77</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="M29" s="31">
+      <c r="G29" s="23"/>
+      <c r="M29" s="30">
         <f>D29</f>
         <v>1</v>
       </c>
@@ -50849,7 +52371,7 @@
       <c r="C30" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -50859,51 +52381,51 @@
       <c r="F30">
         <v>78</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="M30" s="28" t="s">
+      <c r="G30" s="23"/>
+      <c r="M30" s="27" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G31" s="24"/>
-      <c r="M31" s="26"/>
+      <c r="G31" s="23"/>
+      <c r="M31" s="25"/>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G32" s="24"/>
-      <c r="M32" s="26"/>
+      <c r="G32" s="23"/>
+      <c r="M32" s="25"/>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="D33" s="19"/>
-      <c r="G33" s="24"/>
-      <c r="M33" s="26"/>
+      <c r="D33" s="18"/>
+      <c r="G33" s="23"/>
+      <c r="M33" s="25"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G34" s="24"/>
-      <c r="M34" s="26"/>
+      <c r="G34" s="23"/>
+      <c r="M34" s="25"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G35" s="29"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="30"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="29"/>
     </row>
     <row r="38" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G38" s="40" t="s">
+      <c r="G38" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="42"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="41"/>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G39" s="24"/>
-      <c r="M39" s="26"/>
+      <c r="G39" s="23"/>
+      <c r="M39" s="25"/>
     </row>
     <row r="40" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D40" s="3" t="s">
@@ -50915,8 +52437,8 @@
       <c r="F40" t="s">
         <v>132</v>
       </c>
-      <c r="G40" s="24"/>
-      <c r="M40" s="45">
+      <c r="G40" s="23"/>
+      <c r="M40" s="44">
         <f>D46</f>
         <v>1.282051282051282E-2</v>
       </c>
@@ -50935,8 +52457,8 @@
       <c r="F41">
         <v>85</v>
       </c>
-      <c r="G41" s="24"/>
-      <c r="M41" s="46"/>
+      <c r="G41" s="23"/>
+      <c r="M41" s="45"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
@@ -50952,8 +52474,8 @@
       <c r="F42">
         <v>83</v>
       </c>
-      <c r="G42" s="24"/>
-      <c r="M42" s="46"/>
+      <c r="G42" s="23"/>
+      <c r="M42" s="45"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
@@ -50969,8 +52491,8 @@
       <c r="F43">
         <v>86</v>
       </c>
-      <c r="G43" s="24"/>
-      <c r="M43" s="26"/>
+      <c r="G43" s="23"/>
+      <c r="M43" s="25"/>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
@@ -50986,8 +52508,8 @@
       <c r="F44">
         <v>87</v>
       </c>
-      <c r="G44" s="24"/>
-      <c r="M44" s="26"/>
+      <c r="G44" s="23"/>
+      <c r="M44" s="25"/>
     </row>
     <row r="45" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C45" t="s">
@@ -51003,8 +52525,8 @@
       <c r="F45">
         <v>77</v>
       </c>
-      <c r="G45" s="24"/>
-      <c r="M45" s="31">
+      <c r="G45" s="23"/>
+      <c r="M45" s="30">
         <f>D45</f>
         <v>2.5974025974025976E-2</v>
       </c>
@@ -51023,128 +52545,128 @@
       <c r="F46">
         <v>78</v>
       </c>
-      <c r="G46" s="24"/>
-      <c r="M46" s="28" t="s">
+      <c r="G46" s="23"/>
+      <c r="M46" s="27" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="47" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="E47" s="19"/>
-      <c r="G47" s="24"/>
-      <c r="M47" s="26"/>
+      <c r="E47" s="18"/>
+      <c r="G47" s="23"/>
+      <c r="M47" s="25"/>
     </row>
     <row r="48" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G48" s="24"/>
-      <c r="M48" s="26"/>
+      <c r="G48" s="23"/>
+      <c r="M48" s="25"/>
     </row>
     <row r="49" spans="7:24" x14ac:dyDescent="0.35">
-      <c r="G49" s="24"/>
-      <c r="M49" s="26"/>
+      <c r="G49" s="23"/>
+      <c r="M49" s="25"/>
     </row>
     <row r="50" spans="7:24" x14ac:dyDescent="0.35">
-      <c r="G50" s="24"/>
-      <c r="M50" s="26"/>
+      <c r="G50" s="23"/>
+      <c r="M50" s="25"/>
       <c r="P50" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="51" spans="7:24" x14ac:dyDescent="0.35">
-      <c r="G51" s="29"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="30"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="29"/>
     </row>
     <row r="54" spans="7:24" x14ac:dyDescent="0.35">
-      <c r="P54" s="35" t="s">
+      <c r="P54" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="Q54" s="35" t="s">
+      <c r="Q54" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="R54" s="32"/>
-      <c r="S54" s="35" t="s">
+      <c r="R54" s="31"/>
+      <c r="S54" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="T54" s="35" t="s">
+      <c r="T54" s="34" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="55" spans="7:24" x14ac:dyDescent="0.35">
-      <c r="P55" s="34" t="s">
+      <c r="P55" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="Q55" s="33">
+      <c r="Q55" s="32">
         <v>1</v>
       </c>
-      <c r="R55" s="32"/>
-      <c r="S55" s="34" t="s">
+      <c r="R55" s="31"/>
+      <c r="S55" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="T55" s="33">
+      <c r="T55" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="7:24" x14ac:dyDescent="0.35">
-      <c r="P56" s="34" t="s">
+      <c r="P56" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="Q56" s="33">
+      <c r="Q56" s="32">
         <v>1</v>
       </c>
-      <c r="R56" s="32"/>
-      <c r="S56" s="36" t="s">
+      <c r="R56" s="31"/>
+      <c r="S56" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="T56" s="35">
+      <c r="T56" s="34">
         <f ca="1">SUM(T55:T57)</f>
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="7:24" x14ac:dyDescent="0.35">
-      <c r="P57" s="34" t="s">
+      <c r="P57" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="Q57" s="33">
+      <c r="Q57" s="32">
         <v>2</v>
       </c>
-      <c r="R57" s="32"/>
-      <c r="S57" s="32"/>
-      <c r="T57" s="32"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
+      <c r="T57" s="31"/>
     </row>
     <row r="58" spans="7:24" x14ac:dyDescent="0.35">
-      <c r="P58" s="36" t="s">
+      <c r="P58" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="Q58" s="35">
+      <c r="Q58" s="34">
         <f>SUM(Q55:Q57)</f>
         <v>4</v>
       </c>
-      <c r="R58" s="32"/>
-      <c r="S58" s="32"/>
-      <c r="T58" s="32"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="31"/>
     </row>
     <row r="60" spans="7:24" x14ac:dyDescent="0.35">
-      <c r="V60" s="35" t="s">
+      <c r="V60" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="W60" s="35" t="s">
+      <c r="W60" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="X60" s="35" t="s">
+      <c r="X60" s="34" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="61" spans="7:24" ht="29" x14ac:dyDescent="0.35">
-      <c r="V61" s="37" t="s">
+      <c r="V61" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="W61" s="34" t="s">
+      <c r="W61" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="X61" s="38">
+      <c r="X61" s="37">
         <v>45105</v>
       </c>
     </row>
@@ -51167,8 +52689,8 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="B2:M51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView showGridLines="0" topLeftCell="B15" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -51261,91 +52783,141 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G9" s="5"/>
-      <c r="M9" s="6"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="76"/>
     </row>
     <row r="10" spans="2:13" ht="92" x14ac:dyDescent="2">
-      <c r="G10" s="5"/>
-      <c r="M10" s="7">
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="64">
         <f>C5</f>
         <v>0.91339533730158728</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G11" s="5"/>
-      <c r="M11" s="6"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="65"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G12" s="5"/>
-      <c r="M12" s="6"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="65"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G13" s="5"/>
-      <c r="M13" s="6"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="65"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G14" s="5"/>
-      <c r="M14" s="6"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="65"/>
     </row>
     <row r="15" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="G15" s="5"/>
-      <c r="M15" s="16">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="79">
         <v>0.91</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="G16" s="5"/>
-      <c r="M16" s="15" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="67" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G17" s="5"/>
-      <c r="M17" s="6"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="65"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G18" s="5"/>
-      <c r="M18" s="6"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="65"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70"/>
     </row>
     <row r="22" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="73"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="13"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="65"/>
     </row>
     <row r="24" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
@@ -51357,8 +52929,13 @@
       <c r="F24" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="M24" s="56">
+      <c r="G24" s="62"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="78">
         <f>D30</f>
         <v>1</v>
       </c>
@@ -51367,7 +52944,7 @@
       <c r="C25" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="59">
+      <c r="D25" s="54">
         <f>E25/F25</f>
         <v>0.87804878048780488</v>
       </c>
@@ -51377,14 +52954,19 @@
       <c r="F25">
         <v>123</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="M25" s="57"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="81"/>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="59">
+      <c r="D26" s="54">
         <f t="shared" ref="D26:D29" si="0">E26/F26</f>
         <v>0.88</v>
       </c>
@@ -51394,14 +52976,19 @@
       <c r="F26">
         <v>125</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="M26" s="57"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="81"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="59">
+      <c r="D27" s="54">
         <f t="shared" si="0"/>
         <v>0.8984375</v>
       </c>
@@ -51411,14 +52998,19 @@
       <c r="F27">
         <v>128</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="M27" s="6"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="65"/>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="59">
+      <c r="D28" s="54">
         <f t="shared" si="0"/>
         <v>0.90839694656488545</v>
       </c>
@@ -51428,14 +53020,19 @@
       <c r="F28">
         <v>131</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="M28" s="6"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="65"/>
     </row>
     <row r="29" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="59">
+      <c r="D29" s="54">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -51445,8 +53042,13 @@
       <c r="F29">
         <v>114</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="M29" s="14">
+      <c r="G29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="66">
         <f>D29</f>
         <v>1</v>
       </c>
@@ -51455,7 +53057,7 @@
       <c r="C30" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="59">
+      <c r="D30" s="54">
         <f>E30/F30</f>
         <v>1</v>
       </c>
@@ -51465,55 +53067,80 @@
       <c r="F30">
         <v>102</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="M30" s="15" t="s">
+      <c r="G30" s="62"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="67" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G31" s="5"/>
-      <c r="M31" s="6"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="65"/>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G32" s="5"/>
-      <c r="M32" s="6"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="65"/>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G33" s="5"/>
-      <c r="M33" s="6"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="65"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G34" s="5"/>
-      <c r="M34" s="6"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="65"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="70"/>
     </row>
     <row r="38" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="54"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="53"/>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="13"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="12"/>
     </row>
     <row r="40" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
@@ -51526,7 +53153,7 @@
         <v>135</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="M40" s="47">
+      <c r="M40" s="46">
         <f>D46</f>
         <v>0</v>
       </c>
@@ -51546,7 +53173,7 @@
         <v>123</v>
       </c>
       <c r="G41" s="5"/>
-      <c r="M41" s="48"/>
+      <c r="M41" s="47"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
@@ -51563,7 +53190,7 @@
         <v>125</v>
       </c>
       <c r="G42" s="5"/>
-      <c r="M42" s="48"/>
+      <c r="M42" s="47"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
@@ -51611,7 +53238,7 @@
         <v>114</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="M45" s="14">
+      <c r="M45" s="13">
         <f>D45</f>
         <v>0</v>
       </c>
@@ -51628,7 +53255,7 @@
         <v>102</v>
       </c>
       <c r="G46" s="5"/>
-      <c r="M46" s="15" t="s">
+      <c r="M46" s="14" t="s">
         <v>111</v>
       </c>
     </row>
@@ -51649,13 +53276,13 @@
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="10"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -51676,8 +53303,8 @@
   <sheetPr codeName="Hoja9"/>
   <dimension ref="B2:M51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B37" zoomScale="77" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView showGridLines="0" topLeftCell="B20" zoomScale="77" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -51770,91 +53397,141 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G9" s="5"/>
-      <c r="M9" s="6"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="65"/>
     </row>
     <row r="10" spans="2:13" ht="92" x14ac:dyDescent="2">
-      <c r="G10" s="5"/>
-      <c r="M10" s="7">
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="64">
         <f>C5</f>
         <v>0.92298185941043087</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G11" s="5"/>
-      <c r="M11" s="6"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="65"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G12" s="5"/>
-      <c r="M12" s="6"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="65"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G13" s="5"/>
-      <c r="M13" s="6"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="65"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G14" s="5"/>
-      <c r="M14" s="6"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="65"/>
     </row>
     <row r="15" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="G15" s="5"/>
-      <c r="M15" s="14">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="66">
         <v>0.92</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="G16" s="5"/>
-      <c r="M16" s="15" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="67" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G17" s="5"/>
-      <c r="M17" s="6"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="65"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G18" s="5"/>
-      <c r="M18" s="6"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="65"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70"/>
     </row>
     <row r="22" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="73"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="13"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="65"/>
     </row>
     <row r="24" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
@@ -51866,8 +53543,13 @@
       <c r="F24" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="M24" s="56">
+      <c r="G24" s="62"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="78">
         <f>D30</f>
         <v>1</v>
       </c>
@@ -51876,7 +53558,7 @@
       <c r="C25" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="17">
         <f>E25/F25</f>
         <v>0.8271604938271605</v>
       </c>
@@ -51886,14 +53568,19 @@
       <c r="F25">
         <v>81</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="M25" s="57"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="81"/>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="17">
         <f t="shared" ref="D26:D30" si="0">E26/F26</f>
         <v>0.81395348837209303</v>
       </c>
@@ -51903,14 +53590,19 @@
       <c r="F26">
         <v>86</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="M26" s="57"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="81"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="17">
         <f t="shared" si="0"/>
         <v>0.78888888888888886</v>
       </c>
@@ -51920,14 +53612,19 @@
       <c r="F27">
         <v>90</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="M27" s="6"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="65"/>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="17">
         <f t="shared" si="0"/>
         <v>0.7978723404255319</v>
       </c>
@@ -51937,14 +53634,19 @@
       <c r="F28">
         <v>94</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="M28" s="6"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="65"/>
     </row>
     <row r="29" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -51954,8 +53656,13 @@
       <c r="F29">
         <v>75</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="M29" s="14">
+      <c r="G29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="66">
         <f>D29</f>
         <v>1</v>
       </c>
@@ -51964,7 +53671,7 @@
       <c r="C30" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -51974,55 +53681,80 @@
       <c r="F30">
         <v>74</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="M30" s="15" t="s">
+      <c r="G30" s="62"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="67" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G31" s="5"/>
-      <c r="M31" s="6"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="65"/>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G32" s="5"/>
-      <c r="M32" s="6"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="65"/>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G33" s="5"/>
-      <c r="M33" s="6"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="65"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G34" s="5"/>
-      <c r="M34" s="6"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="65"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="70"/>
     </row>
     <row r="38" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="54"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="53"/>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="13"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="12"/>
     </row>
     <row r="40" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
@@ -52035,7 +53767,7 @@
         <v>135</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="M40" s="47">
+      <c r="M40" s="46">
         <f>D46</f>
         <v>0</v>
       </c>
@@ -52055,7 +53787,7 @@
         <v>81</v>
       </c>
       <c r="G41" s="5"/>
-      <c r="M41" s="48"/>
+      <c r="M41" s="47"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
@@ -52072,7 +53804,7 @@
         <v>86</v>
       </c>
       <c r="G42" s="5"/>
-      <c r="M42" s="48"/>
+      <c r="M42" s="47"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
@@ -52120,7 +53852,7 @@
         <v>75</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="M45" s="16">
+      <c r="M45" s="15">
         <f>D45</f>
         <v>0</v>
       </c>
@@ -52137,7 +53869,7 @@
         <v>74</v>
       </c>
       <c r="G46" s="5"/>
-      <c r="M46" s="15" t="s">
+      <c r="M46" s="14" t="s">
         <v>111</v>
       </c>
     </row>
@@ -52158,13 +53890,13 @@
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="10"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -52185,8 +53917,8 @@
   <sheetPr codeName="Hoja10"/>
   <dimension ref="B2:M51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A35" zoomScale="73" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="73" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -52279,91 +54011,141 @@
       </c>
     </row>
     <row r="8" spans="2:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="51"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G9" s="5"/>
-      <c r="M9" s="6"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="65"/>
     </row>
     <row r="10" spans="2:13" ht="92" x14ac:dyDescent="2">
-      <c r="G10" s="5"/>
-      <c r="M10" s="7">
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="64">
         <f>C5</f>
         <v>0.89618709895305637</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G11" s="5"/>
-      <c r="M11" s="6"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="65"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G12" s="5"/>
-      <c r="M12" s="6"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="65"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G13" s="5"/>
-      <c r="M13" s="6"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="65"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="G14" s="5"/>
-      <c r="M14" s="6"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="65"/>
     </row>
     <row r="15" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="G15" s="5"/>
-      <c r="M15" s="16">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="82">
         <v>0.89</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="G16" s="5"/>
-      <c r="M16" s="15" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="67" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G17" s="5"/>
-      <c r="M17" s="6"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="65"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G18" s="5"/>
-      <c r="M18" s="6"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="65"/>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70"/>
     </row>
     <row r="22" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="73"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="13"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="65"/>
     </row>
     <row r="24" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
@@ -52375,8 +54157,13 @@
       <c r="F24" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="M24" s="56">
+      <c r="G24" s="62"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="78">
         <f>D30</f>
         <v>1</v>
       </c>
@@ -52385,7 +54172,7 @@
       <c r="C25" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="17">
         <f>E25/F25</f>
         <v>0.96650717703349287</v>
       </c>
@@ -52395,14 +54182,19 @@
       <c r="F25">
         <v>209</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="M25" s="57"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="81"/>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="17">
         <f t="shared" ref="D26:D30" si="0">E26/F26</f>
         <v>0.97169811320754718</v>
       </c>
@@ -52412,14 +54204,19 @@
       <c r="F26">
         <v>212</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="M26" s="57"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="81"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="17">
         <f t="shared" si="0"/>
         <v>0.94418604651162785</v>
       </c>
@@ -52429,14 +54226,19 @@
       <c r="F27">
         <v>215</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="M27" s="6"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="65"/>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="17">
         <f t="shared" si="0"/>
         <v>0.94954128440366969</v>
       </c>
@@ -52446,14 +54248,19 @@
       <c r="F28">
         <v>218</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="M28" s="6"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="65"/>
     </row>
     <row r="29" spans="3:13" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -52463,8 +54270,13 @@
       <c r="F29">
         <v>208</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="M29" s="14">
+      <c r="G29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="66">
         <f>D29</f>
         <v>1</v>
       </c>
@@ -52473,7 +54285,7 @@
       <c r="C30" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -52483,55 +54295,80 @@
       <c r="F30">
         <v>175</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="M30" s="15" t="s">
+      <c r="G30" s="62"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="67" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G31" s="5"/>
-      <c r="M31" s="6"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="65"/>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G32" s="5"/>
-      <c r="M32" s="6"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="65"/>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G33" s="5"/>
-      <c r="M33" s="6"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="65"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G34" s="5"/>
-      <c r="M34" s="6"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="65"/>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="70"/>
     </row>
     <row r="38" spans="3:13" ht="33.5" x14ac:dyDescent="0.75">
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="54"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="53"/>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.35">
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="13"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="12"/>
     </row>
     <row r="40" spans="3:13" ht="61.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
@@ -52544,7 +54381,7 @@
         <v>135</v>
       </c>
       <c r="G40" s="5"/>
-      <c r="M40" s="47">
+      <c r="M40" s="46">
         <f>D46</f>
         <v>0</v>
       </c>
@@ -52564,7 +54401,7 @@
         <v>209</v>
       </c>
       <c r="G41" s="5"/>
-      <c r="M41" s="48"/>
+      <c r="M41" s="47"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
@@ -52581,7 +54418,7 @@
         <v>212</v>
       </c>
       <c r="G42" s="5"/>
-      <c r="M42" s="48"/>
+      <c r="M42" s="47"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
@@ -52629,7 +54466,7 @@
         <v>208</v>
       </c>
       <c r="G45" s="5"/>
-      <c r="M45" s="14">
+      <c r="M45" s="13">
         <f>D45</f>
         <v>0</v>
       </c>
@@ -52646,7 +54483,7 @@
         <v>175</v>
       </c>
       <c r="G46" s="5"/>
-      <c r="M46" s="15" t="s">
+      <c r="M46" s="14" t="s">
         <v>111</v>
       </c>
     </row>
@@ -52667,13 +54504,13 @@
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="7:13" x14ac:dyDescent="0.35">
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="10"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
